--- a/Tyoajanseuranta.xlsx
+++ b/Tyoajanseuranta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://edukainuu-my.sharepoint.com/personal/jannebragge_kamk_fi/Documents/4_Syksy24/Asiantuntijaluennot/R_Basics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{744DDAF3-B26F-44DC-82DE-860002B62014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="8_{744DDAF3-B26F-44DC-82DE-860002B62014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB157DEF-E21B-48CC-8B77-80606746FB3F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,8 +32,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Janne Bragge</author>
+  </authors>
+  <commentList>
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{E8DC900C-7322-47FD-80FB-26C48418BAA4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Janne Bragge:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+https://www.youtube.com/watch?v=KlsYCECWEWE
+video</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Aloitusaika</t>
   </si>
@@ -60,16 +95,50 @@
   </si>
   <si>
     <t>Muuttujat</t>
+  </si>
+  <si>
+    <t>loogiset operaatiot</t>
+  </si>
+  <si>
+    <t>Simplilearn video + muistiinpanot + suunnittelu</t>
+  </si>
+  <si>
+    <t>Vektorit</t>
+  </si>
+  <si>
+    <t>Simplilearn video + muistiinpanot + ohjelmien asentaminen</t>
+  </si>
+  <si>
+    <t>Listat</t>
+  </si>
+  <si>
+    <t>matriisit</t>
+  </si>
+  <si>
+    <t>Dataframes</t>
+  </si>
+  <si>
+    <t>FlowControl</t>
+  </si>
+  <si>
+    <t>Funktiot</t>
+  </si>
+  <si>
+    <t>Datamanipulaatio</t>
+  </si>
+  <si>
+    <t>Datan visualisoniti</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +153,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,12 +203,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -142,6 +228,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,22 +557,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="38.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="56.44140625" customWidth="1"/>
     <col min="4" max="4" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,82 +585,237 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="4">
         <f>SUM(D2:D66)</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19.45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
+        <v>45626.416666666664</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45626.666666666664</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>45627.416666666664</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45627.583333333336</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>45630.625</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B4" s="2">
         <v>45630.645833333336</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
+      <c r="D4" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>45630.645833333336</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B5" s="2">
         <v>45630.666666666664</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="D5" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>45630.666666666664</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B6" s="2">
         <v>45630.708333333336</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="D6" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>45630.708333333336</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B7" s="2">
         <v>45630.729166666664</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D5">
+      <c r="D7" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>45630.729166666664</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B8" s="2">
         <v>45630.75</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D6">
+      <c r="D8" s="4">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>45631.708333333336</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45631.75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>45631.75</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45631.770833333336</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>45632.375</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45632.395833333336</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>45632.395833333336</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45632.4375</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>45632.4375</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45632.479166666664</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>45632.479166666664</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45632.5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>45632.5</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45632.520833333336</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>45632.520833333336</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45632.5625</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>45632.5625</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45632.604166666664</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tyoajanseuranta.xlsx
+++ b/Tyoajanseuranta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://edukainuu-my.sharepoint.com/personal/jannebragge_kamk_fi/Documents/4_Syksy24/Asiantuntijaluennot/R_Basics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="8_{744DDAF3-B26F-44DC-82DE-860002B62014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB157DEF-E21B-48CC-8B77-80606746FB3F}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="8_{744DDAF3-B26F-44DC-82DE-860002B62014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BF01EF5-D67F-4C93-AF93-BAAC250FA035}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -558,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,7 +587,7 @@
       </c>
       <c r="E1" s="4">
         <f>SUM(D2:D66)</f>
-        <v>19.45</v>
+        <v>23.45</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -812,6 +812,17 @@
       </c>
       <c r="D17" s="4">
         <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>45633.4375</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45632.604166666664</v>
+      </c>
+      <c r="D18" s="4">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Tyoajanseuranta.xlsx
+++ b/Tyoajanseuranta.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://edukainuu-my.sharepoint.com/personal/jannebragge_kamk_fi/Documents/4_Syksy24/Asiantuntijaluennot/R_Basics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="8_{744DDAF3-B26F-44DC-82DE-860002B62014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BF01EF5-D67F-4C93-AF93-BAAC250FA035}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="8_{744DDAF3-B26F-44DC-82DE-860002B62014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE8B7059-3E51-4BD1-988B-BDFF29A59E66}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
     <author>Janne Bragge</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{E8DC900C-7322-47FD-80FB-26C48418BAA4}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{50519ABE-8C24-4440-BD09-D2F3B1929D02}">
       <text>
         <r>
           <rPr>
@@ -58,8 +58,27 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-https://www.youtube.com/watch?v=KlsYCECWEWE
-video</t>
+Projekti rakentuu kolmesta dokumentaatiosta
+1) R-kielen syntaksin läpikäynti
+2) Esimerkki yksinkertaisesta ETL-projektista ja dokumentaatio
+3) 5 koneoppimismallia ja niiden dokumentaatio
+Tämän lisäksi muodostin julkisen repon 
+https://github.com/studentjannebragge/R-ETL-and-ML
+Projektin tekemiseen käytin 
+RStudiota, Git-versionhallintaa ja dokumentit tein Word:ssa 
+Projektin aluksi kävin alkusyksystä videoita läpi R-kielestä
+kokonaisuudessa katsoin Simplilearnin ja eurekan videot joista 
+merkkasin yhden työpäivän tuntimäärän, koska aivan joka kohtaa 
+en katsonut.
+R-Tutorial For Beginners 2022 (youtube)
+https://www.youtube.com/watch?v=KlsYCECWEWE&amp;t=12043s
+johon myös R-kielen syntaksiopas pitkälti perustuu
+Tämän lisäksi katsoin pitkälle myös videon 
+R For Data Science Full Course
+https://www.youtube.com/watch?v=ckdHNu4kfL0
+Kirjallisissa töissä hyödynsin sekä ChatGPT:n mallia 4o ja Perplexity (ilmaisversio). Halusin varsinkin syntaksioppaasta tehdä mahdollisimman laajan jotta se olisi käytettävissä myöhemmissä vaiheissa muissa projekteissa. Projektit on tehty tekoälyn opastuksella itse perässä tekien, tämän vuoksi myös niiden dokumentaatio on pitkälti tekoälyn kirjoittamaa. 
+Kaiken kaikkiaan projetin kautta sain aika hyvän läpileikkauksen R-kielen hyödyntämisestä data-analyysissä, eikä siihen tarttuminen herätä enää niin suurta kynnystä. Tulevissa tehtävissä tulenkin suurella todennäköisyydellä tutkimaan dataa R-kielellä siinä missä Pythonillakin. Toisaalta Tekoälyn kannalta oli hieman jopa innostavaa kuinka helposti ja nopeasti ns. ei virallliseen käyttöön saa luotua oppaita. Projektien kohdalla laatu ei nyt ehkä ollut niin hyvä kuin olisin toivonut ja mikäli kurssin pistemäärä olisi yhden sijaan kolme, niin olisin lähtenyt vielä muokkaamaan niitä laadukkaampaan suuntaan. 
+</t>
         </r>
       </text>
     </comment>
@@ -68,13 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Aloitusaika</t>
-  </si>
-  <si>
-    <t>Lopetusaika</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Työtehtävä</t>
   </si>
@@ -100,15 +113,9 @@
     <t>loogiset operaatiot</t>
   </si>
   <si>
-    <t>Simplilearn video + muistiinpanot + suunnittelu</t>
-  </si>
-  <si>
     <t>Vektorit</t>
   </si>
   <si>
-    <t>Simplilearn video + muistiinpanot + ohjelmien asentaminen</t>
-  </si>
-  <si>
     <t>Listat</t>
   </si>
   <si>
@@ -128,14 +135,28 @@
   </si>
   <si>
     <t>Datan visualisoniti</t>
+  </si>
+  <si>
+    <t>Projekti tekeminen + dokumentaatio</t>
+  </si>
+  <si>
+    <t>kokonaistyöskentelyaika</t>
+  </si>
+  <si>
+    <t>ML-projektit + dokumentaatio</t>
+  </si>
+  <si>
+    <t>Simplilearn  ja Eudeka videot + muistiinpanot + suunnittelu</t>
+  </si>
+  <si>
+    <t>ohjelmien asentaminen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
@@ -176,7 +197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -199,20 +220,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,273 +600,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1"/>
-    <col min="3" max="3" width="56.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" customWidth="1"/>
+    <col min="1" max="1" width="56.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B4" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4">
-        <f>SUM(D2:D66)</f>
-        <v>23.45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>45626.416666666664</v>
-      </c>
-      <c r="B2" s="2">
-        <v>45626.666666666664</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B5" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>45627.416666666664</v>
-      </c>
-      <c r="B3" s="2">
-        <v>45627.583333333336</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>45630.625</v>
-      </c>
-      <c r="B4" s="2">
-        <v>45630.645833333336</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="B14" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>45630.645833333336</v>
-      </c>
-      <c r="B5" s="2">
-        <v>45630.666666666664</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7">
         <v>5</v>
       </c>
-      <c r="D5" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>45630.666666666664</v>
-      </c>
-      <c r="B6" s="2">
-        <v>45630.708333333336</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>45630.708333333336</v>
-      </c>
-      <c r="B7" s="2">
-        <v>45630.729166666664</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>45630.729166666664</v>
-      </c>
-      <c r="B8" s="2">
-        <v>45630.75</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>45631.708333333336</v>
-      </c>
-      <c r="B9" s="2">
-        <v>45631.75</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>45631.75</v>
-      </c>
-      <c r="B10" s="2">
-        <v>45631.770833333336</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>45632.375</v>
-      </c>
-      <c r="B11" s="2">
-        <v>45632.395833333336</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>45632.395833333336</v>
-      </c>
-      <c r="B12" s="2">
-        <v>45632.4375</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>45632.4375</v>
-      </c>
-      <c r="B13" s="2">
-        <v>45632.479166666664</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>45632.479166666664</v>
-      </c>
-      <c r="B14" s="2">
-        <v>45632.5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>45632.5</v>
-      </c>
-      <c r="B15" s="2">
-        <v>45632.520833333336</v>
-      </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9">
+        <v>5</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>45632.520833333336</v>
-      </c>
-      <c r="B16" s="2">
-        <v>45632.5625</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>45632.5625</v>
-      </c>
-      <c r="B17" s="2">
-        <v>45632.604166666664</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>45633.4375</v>
-      </c>
-      <c r="B18" s="2">
-        <v>45632.604166666664</v>
-      </c>
-      <c r="D18" s="4">
-        <v>4</v>
-      </c>
-    </row>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="2"/>
+      <c r="C20" s="3">
+        <f>SUM(B2:B67)</f>
+        <v>27.45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Tyoajanseuranta.xlsx
+++ b/Tyoajanseuranta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://edukainuu-my.sharepoint.com/personal/jannebragge_kamk_fi/Documents/4_Syksy24/Asiantuntijaluennot/R_Basics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="168" documentId="8_{744DDAF3-B26F-44DC-82DE-860002B62014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE8B7059-3E51-4BD1-988B-BDFF29A59E66}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="8_{744DDAF3-B26F-44DC-82DE-860002B62014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45B61F98-1BF8-448B-B97F-3B2E92DF706E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,7 +157,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -242,19 +242,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,18 +745,18 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="2">
         <v>5</v>
       </c>
       <c r="C19" s="5" t="s">

--- a/Tyoajanseuranta.xlsx
+++ b/Tyoajanseuranta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://edukainuu-my.sharepoint.com/personal/jannebragge_kamk_fi/Documents/4_Syksy24/Asiantuntijaluennot/R_Basics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="8_{744DDAF3-B26F-44DC-82DE-860002B62014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45B61F98-1BF8-448B-B97F-3B2E92DF706E}"/>
+  <xr:revisionPtr revIDLastSave="187" documentId="8_{744DDAF3-B26F-44DC-82DE-860002B62014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA55B122-BD8B-4CAD-948B-799D2C37585D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,27 +58,36 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Projekti rakentuu kolmesta dokumentaatiosta
+Projektin tavoitteena oli mahdollisimman laajasti perehtyä itselleni vieraaseen R-kielen syntaksiin, jotta voin hyödyntää sitä tulevaisuudessa datan käsittelyyn. Opettuksena käytin tekoälytutoria ja opetusvideoita youtubesta.
+Projekti rakentuu kolmesta dokumentaatiosta joilla kuvaan oppimisprosessiani
 1) R-kielen syntaksin läpikäynti
 2) Esimerkki yksinkertaisesta ETL-projektista ja dokumentaatio
 3) 5 koneoppimismallia ja niiden dokumentaatio
 Tämän lisäksi muodostin julkisen repon 
 https://github.com/studentjannebragge/R-ETL-and-ML
 Projektin tekemiseen käytin 
-RStudiota, Git-versionhallintaa ja dokumentit tein Word:ssa 
-Projektin aluksi kävin alkusyksystä videoita läpi R-kielestä
+RStudiota, Git-versionhallintaa ja dokumentit tein Word:ssa
+Projektin aluksi kävin videoita läpi R-kielestä
 kokonaisuudessa katsoin Simplilearnin ja eurekan videot joista 
 merkkasin yhden työpäivän tuntimäärän, koska aivan joka kohtaa 
-en katsonut.
+en katsonut. Videot olivat kaikenkaikkiaan 15 tuntia pitkät.
 R-Tutorial For Beginners 2022 (youtube)
 https://www.youtube.com/watch?v=KlsYCECWEWE&amp;t=12043s
 johon myös R-kielen syntaksiopas pitkälti perustuu
-Tämän lisäksi katsoin pitkälle myös videon 
+Tämän lisäksi katsoin pitkälti myös videon 
 R For Data Science Full Course
 https://www.youtube.com/watch?v=ckdHNu4kfL0
+R-kielen dokumentaatiosta varmistin tekoälytutorin oppeja
+https://www.r-project.org/other-docs.html
 Kirjallisissa töissä hyödynsin sekä ChatGPT:n mallia 4o ja Perplexity (ilmaisversio). Halusin varsinkin syntaksioppaasta tehdä mahdollisimman laajan jotta se olisi käytettävissä myöhemmissä vaiheissa muissa projekteissa. Projektit on tehty tekoälyn opastuksella itse perässä tekien, tämän vuoksi myös niiden dokumentaatio on pitkälti tekoälyn kirjoittamaa. 
-Kaiken kaikkiaan projetin kautta sain aika hyvän läpileikkauksen R-kielen hyödyntämisestä data-analyysissä, eikä siihen tarttuminen herätä enää niin suurta kynnystä. Tulevissa tehtävissä tulenkin suurella todennäköisyydellä tutkimaan dataa R-kielellä siinä missä Pythonillakin. Toisaalta Tekoälyn kannalta oli hieman jopa innostavaa kuinka helposti ja nopeasti ns. ei virallliseen käyttöön saa luotua oppaita. Projektien kohdalla laatu ei nyt ehkä ollut niin hyvä kuin olisin toivonut ja mikäli kurssin pistemäärä olisi yhden sijaan kolme, niin olisin lähtenyt vielä muokkaamaan niitä laadukkaampaan suuntaan. 
-</t>
+Kaiken kaikkiaan projetin kautta sain aika hyvän läpileikkauksen R-kielen hyödyntämisestä data-analyysissä, eikä siihen tarttuminen herätä enää niin suurta kynnystä. Tulevissa tehtävissä tulenkin suurella todennäköisyydellä tutkimaan dataa R-kielellä siinä missä Pythonillakin. Toisaalta Tekoälyn kannalta oli hieman jopa innostavaa kuinka helposti ja nopeasti ns. ei virallliseen käyttöön saa luotua oppaita. Projektien kohdalla tekoäly tuutorina ei ollut laadultaan niin hyvä kuin olisin toivonut ja mikäli kurssin pistemäärä olisi yhden sijaan kolme, niin olisin lähtenyt tekemään uudet projektit kenties opasvideoiden avulla.  
+Muita lähteitä työssä oli 
+Verkko:
+WSSchool R-tutorial
+https://www.w3schools.com/r/
+Kirjalliset / e-kirjat:
+Aphalo, P. J., &amp; Aphalo, P. J. (2020). Learn R: As a language (First edition.). CRC Press.
+Gardener, M. (2012). Beginning R: The statistical programming language (1st edition.). John Wiley &amp; Sons.</t>
         </r>
       </text>
     </comment>
@@ -107,36 +116,6 @@
     <t>Pseudodatan visualisointi</t>
   </si>
   <si>
-    <t>Muuttujat</t>
-  </si>
-  <si>
-    <t>loogiset operaatiot</t>
-  </si>
-  <si>
-    <t>Vektorit</t>
-  </si>
-  <si>
-    <t>Listat</t>
-  </si>
-  <si>
-    <t>matriisit</t>
-  </si>
-  <si>
-    <t>Dataframes</t>
-  </si>
-  <si>
-    <t>FlowControl</t>
-  </si>
-  <si>
-    <t>Funktiot</t>
-  </si>
-  <si>
-    <t>Datamanipulaatio</t>
-  </si>
-  <si>
-    <t>Datan visualisoniti</t>
-  </si>
-  <si>
     <t>Projekti tekeminen + dokumentaatio</t>
   </si>
   <si>
@@ -150,6 +129,36 @@
   </si>
   <si>
     <t>ohjelmien asentaminen</t>
+  </si>
+  <si>
+    <t>Muuttujat (opiskelu + kappaleen kirjoitus)</t>
+  </si>
+  <si>
+    <t>loogiset operaatiot (opiskelu + kappaleen kirjoitus)</t>
+  </si>
+  <si>
+    <t>Vektorit (opiskelu + kappaleen kirjoitus)</t>
+  </si>
+  <si>
+    <t>Listat (opiskelu + kappaleen kirjoitus)</t>
+  </si>
+  <si>
+    <t>matriisit (opiskelu + kappaleen kirjoitus)</t>
+  </si>
+  <si>
+    <t>Dataframes (opiskelu + kappaleen kirjoitus)</t>
+  </si>
+  <si>
+    <t>FlowControl (opiskelu + kappaleen kirjoitus)</t>
+  </si>
+  <si>
+    <t>Funktiot (opiskelu + kappaleen kirjoitus)</t>
+  </si>
+  <si>
+    <t>Datamanipulaatio (opiskelu + kappaleen kirjoitus)</t>
+  </si>
+  <si>
+    <t>Datan visualisoniti (opiskelu + kappaleen kirjoitus)</t>
   </si>
 </sst>
 </file>
@@ -599,7 +608,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,7 +627,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2">
         <v>7</v>
@@ -626,7 +635,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -666,7 +675,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
         <v>0.5</v>
@@ -674,7 +683,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -682,7 +691,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2">
         <v>0.5</v>
@@ -690,7 +699,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2">
         <v>0.45</v>
@@ -698,7 +707,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -706,7 +715,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -714,7 +723,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2">
         <v>0.5</v>
@@ -722,7 +731,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2">
         <v>0.5</v>
@@ -730,7 +739,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -738,7 +747,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -746,7 +755,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2">
         <v>5</v>
@@ -754,13 +763,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B19" s="2">
         <v>5</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D19" s="4"/>
     </row>
